--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111808328</v>
+        <v>111808515</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>611008.4619706698</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R2" t="n">
-        <v>7181032.205813259</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111807777</v>
+        <v>111808387</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610955.5779051523</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R3" t="n">
-        <v>7181003.318500374</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111806969</v>
+        <v>111808000</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610695.5210812307</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R4" t="n">
-        <v>7181007.871029559</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111806888</v>
+        <v>111807814</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610667.2784075569</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R5" t="n">
-        <v>7181030.781246905</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1090,22 +1090,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111809318</v>
+        <v>111807370</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610793.1422167002</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R6" t="n">
-        <v>7180891.290986502</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111808676</v>
+        <v>111808957</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610906.3771198173</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R7" t="n">
-        <v>7180955.75143602</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111807370</v>
+        <v>111808817</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610667.3767981895</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R8" t="n">
-        <v>7181039.764941735</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111809897</v>
+        <v>111809026</v>
       </c>
       <c r="B9" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,37 +1487,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610718.603132805</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R9" t="n">
-        <v>7180857.334717941</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1549,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1559,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1568,7 +1566,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1587,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111808532</v>
+        <v>111806888</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610963.6803355663</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R10" t="n">
-        <v>7181097.266412931</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1658,22 +1655,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111807055</v>
+        <v>111808022</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610666.4119294117</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R11" t="n">
-        <v>7181042.722880279</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111808817</v>
+        <v>111809897</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,35 +1826,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610921.7319367616</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R12" t="n">
-        <v>7180934.079081071</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1888,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1898,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1908,6 +1907,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111807814</v>
+        <v>111807821</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610955.7664983921</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R13" t="n">
-        <v>7180998.193866283</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111807821</v>
+        <v>111806969</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610967.5972068857</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R14" t="n">
-        <v>7181002.477957427</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111807092</v>
+        <v>111808659</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610678.3995887624</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R15" t="n">
-        <v>7181042.735301252</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808515</v>
+        <v>111808676</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610986.3631281323</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R16" t="n">
-        <v>7181120.765008576</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111809026</v>
+        <v>111808328</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610772.3941544103</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R17" t="n">
-        <v>7180884.969268824</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808387</v>
+        <v>111807092</v>
       </c>
       <c r="B18" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611016.8359391808</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R18" t="n">
-        <v>7181141.984797659</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808022</v>
+        <v>111807777</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2616,25 +2616,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611005.4375152331</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R19" t="n">
-        <v>7181032.949711116</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111808000</v>
+        <v>111807055</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610972.8318012832</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R20" t="n">
-        <v>7180976.585010829</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111808659</v>
+        <v>111809318</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610912.6426496292</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R21" t="n">
-        <v>7180936.738188162</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111808957</v>
+        <v>111808532</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610787.509024983</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R22" t="n">
-        <v>7180858.155172224</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111808515</v>
+        <v>111808957</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610986.3631281323</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R2" t="n">
-        <v>7181120.765008576</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111808387</v>
+        <v>111809318</v>
       </c>
       <c r="B3" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611016.8359391808</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R3" t="n">
-        <v>7181141.984797659</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111808000</v>
+        <v>111807777</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610972.8318012832</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R4" t="n">
-        <v>7180976.585010829</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111807814</v>
+        <v>111808000</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610955.7664983921</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R5" t="n">
-        <v>7180998.193866283</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111807370</v>
+        <v>111808676</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610667.3767981895</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R6" t="n">
-        <v>7181039.764941735</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111808957</v>
+        <v>111809026</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610787.509024983</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R7" t="n">
-        <v>7180858.155172224</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111808817</v>
+        <v>111807814</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610921.7319367616</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R8" t="n">
-        <v>7180934.079081071</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111809026</v>
+        <v>111806888</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610772.3941544103</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R9" t="n">
-        <v>7180884.969268824</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1542,22 +1542,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111806888</v>
+        <v>111808328</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610667.2784075569</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R10" t="n">
-        <v>7181030.781246905</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111808022</v>
+        <v>111808817</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611005.4375152331</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R11" t="n">
-        <v>7181032.949711116</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111806969</v>
+        <v>111808022</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610695.5210812307</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R14" t="n">
-        <v>7181007.871029559</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808659</v>
+        <v>111808515</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610912.6426496292</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R15" t="n">
-        <v>7180936.738188162</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808676</v>
+        <v>111808659</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610906.3771198173</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R16" t="n">
-        <v>7180955.75143602</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111808328</v>
+        <v>111807092</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611008.4619706698</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R17" t="n">
-        <v>7181032.205813259</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111807092</v>
+        <v>111807055</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610678.3995887624</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R18" t="n">
-        <v>7181042.735301252</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111807777</v>
+        <v>111808532</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,21 +2620,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610955.5779051523</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R19" t="n">
-        <v>7181003.318500374</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111807055</v>
+        <v>111807370</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610666.4119294117</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R20" t="n">
-        <v>7181042.722880279</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111809318</v>
+        <v>111808387</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610793.1422167002</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R21" t="n">
-        <v>7180891.290986502</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111808532</v>
+        <v>111806969</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610963.6803355663</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R22" t="n">
-        <v>7181097.266412931</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111808957</v>
+        <v>111809026</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610787.509024983</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R2" t="n">
-        <v>7180858.155172224</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809318</v>
+        <v>111807814</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610793.1422167002</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R3" t="n">
-        <v>7180891.290986502</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111807777</v>
+        <v>111808957</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610955.5779051523</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R4" t="n">
-        <v>7181003.318500374</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111808000</v>
+        <v>111808022</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610972.8318012832</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R5" t="n">
-        <v>7180976.585010829</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111808676</v>
+        <v>111808328</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610906.3771198173</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R6" t="n">
-        <v>7180955.75143602</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111809026</v>
+        <v>111809318</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610772.3941544103</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R7" t="n">
-        <v>7180884.969268824</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111807814</v>
+        <v>111807055</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610955.7664983921</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R8" t="n">
-        <v>7180998.193866283</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111806888</v>
+        <v>111808515</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610667.2784075569</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R9" t="n">
-        <v>7181030.781246905</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1542,22 +1542,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111808328</v>
+        <v>111808659</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611008.4619706698</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R10" t="n">
-        <v>7181032.205813259</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111808817</v>
+        <v>111806888</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610921.7319367616</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R11" t="n">
-        <v>7180934.079081071</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1768,22 +1768,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111809897</v>
+        <v>111808676</v>
       </c>
       <c r="B12" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,37 +1826,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610718.603132805</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R12" t="n">
-        <v>7180857.334717941</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1888,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1898,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1907,7 +1905,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1926,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111807821</v>
+        <v>111809897</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,35 +1939,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610967.5972068857</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R13" t="n">
-        <v>7181002.477957427</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2001,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2011,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2021,6 +2020,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111808022</v>
+        <v>111807821</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611005.4375152331</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R14" t="n">
-        <v>7181032.949711116</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808515</v>
+        <v>111807777</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610986.3631281323</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R15" t="n">
-        <v>7181120.765008576</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808659</v>
+        <v>111806969</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610912.6426496292</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R16" t="n">
-        <v>7180936.738188162</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111807055</v>
+        <v>111808817</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610666.4119294117</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R18" t="n">
-        <v>7181042.722880279</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808532</v>
+        <v>111808000</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,21 +2620,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610963.6803355663</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R19" t="n">
-        <v>7181097.266412931</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111807370</v>
+        <v>111808387</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610667.3767981895</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R20" t="n">
-        <v>7181039.764941735</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111808387</v>
+        <v>111808532</v>
       </c>
       <c r="B21" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611016.8359391808</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R21" t="n">
-        <v>7181141.984797659</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,7 +2943,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111806969</v>
+        <v>111807370</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610695.5210812307</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R22" t="n">
-        <v>7181007.871029559</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3053,6 +3053,122 @@
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111861742</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78579</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Rönnberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>610812.3980471041</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7181031.407649678</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809026</v>
+        <v>111807055</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610772.3941544103</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R2" t="n">
-        <v>7180884.969268824</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111807814</v>
+        <v>111809026</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610955.7664983921</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R3" t="n">
-        <v>7180998.193866283</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111808957</v>
+        <v>111808676</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610787.509024983</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R4" t="n">
-        <v>7180858.155172224</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111808022</v>
+        <v>111807370</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611005.4375152331</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R5" t="n">
-        <v>7181032.949711116</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111808328</v>
+        <v>111808532</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611008.4619706698</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R6" t="n">
-        <v>7181032.205813259</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111809318</v>
+        <v>111808022</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610793.1422167002</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R7" t="n">
-        <v>7180891.290986502</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111807055</v>
+        <v>111808328</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610666.4119294117</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R8" t="n">
-        <v>7181042.722880279</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808515</v>
+        <v>111808387</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610986.3631281323</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R9" t="n">
-        <v>7181120.765008576</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111808659</v>
+        <v>111806888</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610912.6426496292</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R10" t="n">
-        <v>7180936.738188162</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111806888</v>
+        <v>111808659</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610667.2784075569</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R11" t="n">
-        <v>7181030.781246905</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1768,22 +1768,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111808676</v>
+        <v>111807092</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610906.3771198173</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R12" t="n">
-        <v>7180955.75143602</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111809897</v>
+        <v>111809318</v>
       </c>
       <c r="B13" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,37 +1939,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610718.603132805</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R13" t="n">
-        <v>7180857.334717941</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2001,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2011,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2020,7 +2018,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111807821</v>
+        <v>111808817</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2080,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610967.5972068857</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R14" t="n">
-        <v>7181002.477957427</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2149,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111807777</v>
+        <v>111808000</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610955.5779051523</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R15" t="n">
-        <v>7181003.318500374</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111806969</v>
+        <v>111809897</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,35 +2278,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610695.5210812307</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R16" t="n">
-        <v>7181007.871029559</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2340,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2350,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2360,6 +2359,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111807092</v>
+        <v>111807814</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,21 +2394,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610678.3995887624</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R17" t="n">
-        <v>7181042.735301252</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808817</v>
+        <v>111808957</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610921.7319367616</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R18" t="n">
-        <v>7180934.079081071</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,7 +2604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808000</v>
+        <v>111808515</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610972.8318012832</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R19" t="n">
-        <v>7180976.585010829</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111808387</v>
+        <v>111807821</v>
       </c>
       <c r="B20" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611016.8359391808</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R20" t="n">
-        <v>7181141.984797659</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111808532</v>
+        <v>111807777</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610963.6803355663</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R21" t="n">
-        <v>7181097.266412931</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,7 +2943,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111807370</v>
+        <v>111806969</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610667.3767981895</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R22" t="n">
-        <v>7181039.764941735</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111807055</v>
+        <v>111809318</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610666.4119294117</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R2" t="n">
-        <v>7181042.722880279</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809026</v>
+        <v>111808515</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610772.3941544103</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R3" t="n">
-        <v>7180884.969268824</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111808676</v>
+        <v>111807821</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610906.3771198173</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R4" t="n">
-        <v>7180955.75143602</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111807370</v>
+        <v>111808676</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610667.3767981895</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R5" t="n">
-        <v>7181039.764941735</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111808532</v>
+        <v>111808328</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610963.6803355663</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R6" t="n">
-        <v>7181097.266412931</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111808022</v>
+        <v>111808387</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611005.4375152331</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R7" t="n">
-        <v>7181032.949711116</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111808328</v>
+        <v>111807055</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611008.4619706698</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R8" t="n">
-        <v>7181032.205813259</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808387</v>
+        <v>111808022</v>
       </c>
       <c r="B9" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611016.8359391808</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R9" t="n">
-        <v>7181141.984797659</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111806888</v>
+        <v>111807814</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610667.2784075569</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R10" t="n">
-        <v>7181030.781246905</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111808659</v>
+        <v>111809897</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,35 +1713,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610912.6426496292</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R11" t="n">
-        <v>7180936.738188162</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1773,7 +1775,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1785,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1792,6 +1794,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1810,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111807092</v>
+        <v>111807370</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610678.3995887624</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R12" t="n">
-        <v>7181042.735301252</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1886,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111809318</v>
+        <v>111808000</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1964,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610793.1422167002</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R13" t="n">
-        <v>7180891.290986502</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1999,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2036,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111808817</v>
+        <v>111806969</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2077,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610921.7319367616</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R14" t="n">
-        <v>7180934.079081071</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2112,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2122,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808000</v>
+        <v>111809026</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2190,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610972.8318012832</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R15" t="n">
-        <v>7180976.585010829</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2225,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2262,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111809897</v>
+        <v>111808957</v>
       </c>
       <c r="B16" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,37 +2281,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610718.603132805</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R16" t="n">
-        <v>7180857.334717941</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2340,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2350,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2359,7 +2360,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111807814</v>
+        <v>111808659</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610955.7664983921</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R17" t="n">
-        <v>7180998.193866283</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808957</v>
+        <v>111807777</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610787.509024983</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R18" t="n">
-        <v>7180858.155172224</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,7 +2604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808515</v>
+        <v>111806888</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610986.3631281323</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R19" t="n">
-        <v>7181120.765008576</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2675,22 +2675,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111807821</v>
+        <v>111808532</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610967.5972068857</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R20" t="n">
-        <v>7181002.477957427</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111807777</v>
+        <v>111807092</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610955.5779051523</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R21" t="n">
-        <v>7181003.318500374</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,7 +2943,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111806969</v>
+        <v>111808817</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610695.5210812307</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R22" t="n">
-        <v>7181007.871029559</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111808515</v>
+        <v>111807821</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610986.3631281323</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R3" t="n">
-        <v>7181120.765008576</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111807821</v>
+        <v>111808515</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610967.5972068857</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R4" t="n">
-        <v>7181002.477957427</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808022</v>
+        <v>111809897</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,39 +1483,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611005.4375152331</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R9" t="n">
-        <v>7181032.949711116</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1547,7 +1549,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1559,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1566,6 +1568,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1584,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111807814</v>
+        <v>111808022</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610955.7664983921</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R10" t="n">
-        <v>7180998.193866283</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1660,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111809897</v>
+        <v>111807814</v>
       </c>
       <c r="B11" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,37 +1716,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610718.603132805</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R11" t="n">
-        <v>7180857.334717941</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1775,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1785,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1794,7 +1795,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111807777</v>
+        <v>111808532</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610955.5779051523</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R18" t="n">
-        <v>7181003.318500374</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,7 +2604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111806888</v>
+        <v>111807777</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610667.2784075569</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R19" t="n">
-        <v>7181030.781246905</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2675,22 +2675,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111808532</v>
+        <v>111806888</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610963.6803355663</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R20" t="n">
-        <v>7181097.266412931</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2788,22 +2788,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111809318</v>
+        <v>111807092</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610793.1422167002</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R2" t="n">
-        <v>7180891.290986502</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111807821</v>
+        <v>111809318</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610967.5972068857</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R3" t="n">
-        <v>7181002.477957427</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111808515</v>
+        <v>111807777</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610986.3631281323</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R4" t="n">
-        <v>7181120.765008576</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111808676</v>
+        <v>111808328</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610906.3771198173</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R5" t="n">
-        <v>7180955.75143602</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111808328</v>
+        <v>111809897</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,39 +1144,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611008.4619706698</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R6" t="n">
-        <v>7181032.205813259</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1210,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1220,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1227,6 +1229,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1245,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111808387</v>
+        <v>111809026</v>
       </c>
       <c r="B7" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1264,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611016.8359391808</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R7" t="n">
-        <v>7181141.984797659</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111807055</v>
+        <v>111807821</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1377,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610666.4119294117</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R8" t="n">
-        <v>7181042.722880279</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111809897</v>
+        <v>111808676</v>
       </c>
       <c r="B9" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,37 +1490,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610718.603132805</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R9" t="n">
-        <v>7180857.334717941</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1549,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1559,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1568,7 +1569,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111808022</v>
+        <v>111807814</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611005.4375152331</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R10" t="n">
-        <v>7181032.949711116</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111807814</v>
+        <v>111808532</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1716,21 +1716,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610955.7664983921</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R11" t="n">
-        <v>7180998.193866283</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111807370</v>
+        <v>111808387</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610667.3767981895</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R12" t="n">
-        <v>7181039.764941735</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111808000</v>
+        <v>111806888</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610972.8318012832</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R13" t="n">
-        <v>7180976.585010829</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1997,22 +1997,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111806969</v>
+        <v>111808957</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610695.5210812307</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R14" t="n">
-        <v>7181007.871029559</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111809026</v>
+        <v>111808659</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610772.3941544103</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R15" t="n">
-        <v>7180884.969268824</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808957</v>
+        <v>111808817</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610787.509024983</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R16" t="n">
-        <v>7180858.155172224</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,7 +2378,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111808659</v>
+        <v>111807370</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610912.6426496292</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R17" t="n">
-        <v>7180936.738188162</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808532</v>
+        <v>111806969</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610963.6803355663</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R18" t="n">
-        <v>7181097.266412931</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,7 +2604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111807777</v>
+        <v>111808000</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610955.5779051523</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R19" t="n">
-        <v>7181003.318500374</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,7 +2717,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111806888</v>
+        <v>111808515</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610667.2784075569</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R20" t="n">
-        <v>7181030.781246905</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2788,22 +2788,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111807092</v>
+        <v>111808022</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610678.3995887624</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R21" t="n">
-        <v>7181042.735301252</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111808817</v>
+        <v>111807055</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610921.7319367616</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R22" t="n">
-        <v>7180934.079081071</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111807092</v>
+        <v>111808817</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610678.3995887624</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R2" t="n">
-        <v>7181042.735301252</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111809318</v>
+        <v>111806969</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610793.1422167002</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R3" t="n">
-        <v>7180891.290986502</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111807777</v>
+        <v>111808676</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610955.5779051523</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R4" t="n">
-        <v>7181003.318500374</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111808328</v>
+        <v>111806888</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611008.4619706698</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R5" t="n">
-        <v>7181032.205813259</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1090,22 +1090,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111809897</v>
+        <v>111807092</v>
       </c>
       <c r="B6" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,37 +1148,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610718.603132805</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R6" t="n">
-        <v>7180857.334717941</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1210,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1220,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1229,7 +1227,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1248,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111809026</v>
+        <v>111808328</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610772.3941544103</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R7" t="n">
-        <v>7180884.969268824</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111807821</v>
+        <v>111808957</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1402,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610967.5972068857</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R8" t="n">
-        <v>7181002.477957427</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808676</v>
+        <v>111809897</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,35 +1487,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610906.3771198173</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R9" t="n">
-        <v>7180955.75143602</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1549,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1559,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1569,6 +1568,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111807814</v>
+        <v>111809318</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610955.7664983921</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R10" t="n">
-        <v>7180998.193866283</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111808532</v>
+        <v>111807777</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1716,21 +1716,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610963.6803355663</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R11" t="n">
-        <v>7181097.266412931</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111808387</v>
+        <v>111807055</v>
       </c>
       <c r="B12" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611016.8359391808</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R12" t="n">
-        <v>7181141.984797659</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111806888</v>
+        <v>111808659</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610667.2784075569</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R13" t="n">
-        <v>7181030.781246905</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1997,22 +1997,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111808957</v>
+        <v>111809026</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610787.509024983</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R14" t="n">
-        <v>7180858.155172224</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808659</v>
+        <v>111808515</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610912.6426496292</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R15" t="n">
-        <v>7180936.738188162</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808817</v>
+        <v>111807370</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610921.7319367616</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R16" t="n">
-        <v>7180934.079081071</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,7 +2378,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111807370</v>
+        <v>111807821</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610667.3767981895</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R17" t="n">
-        <v>7181039.764941735</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111806969</v>
+        <v>111808000</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610695.5210812307</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R18" t="n">
-        <v>7181007.871029559</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808000</v>
+        <v>111808387</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,21 +2620,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610972.8318012832</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R19" t="n">
-        <v>7180976.585010829</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,7 +2717,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111808515</v>
+        <v>111807814</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610986.3631281323</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R20" t="n">
-        <v>7181120.765008576</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111807055</v>
+        <v>111808532</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610666.4119294117</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R22" t="n">
-        <v>7181042.722880279</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111808817</v>
+        <v>111808387</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610921.7319367616</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R2" t="n">
-        <v>7180934.079081071</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111806969</v>
+        <v>111808817</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610695.5210812307</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R3" t="n">
-        <v>7181007.871029559</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111808676</v>
+        <v>111809897</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,35 +922,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610906.3771198173</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R4" t="n">
-        <v>7180955.75143602</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +984,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +994,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,6 +1003,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111806888</v>
+        <v>111806969</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1060,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610667.2784075569</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R5" t="n">
-        <v>7181030.781246905</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1090,22 +1093,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111807092</v>
+        <v>111808328</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1147,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610678.3995887624</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R6" t="n">
-        <v>7181042.735301252</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1208,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111808328</v>
+        <v>111807777</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611008.4619706698</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R7" t="n">
-        <v>7181032.205813259</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111808957</v>
+        <v>111809318</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1399,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610787.509024983</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R8" t="n">
-        <v>7180858.155172224</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111809897</v>
+        <v>111808022</v>
       </c>
       <c r="B9" t="n">
-        <v>85715</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,41 +1486,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>510</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610718.603132805</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R9" t="n">
-        <v>7180857.334717941</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1549,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1559,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1568,7 +1569,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111809318</v>
+        <v>111807814</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610793.1422167002</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R10" t="n">
-        <v>7180891.290986502</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,7 +1700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111807777</v>
+        <v>111809026</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610955.5779051523</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R11" t="n">
-        <v>7181003.318500374</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111807055</v>
+        <v>111808515</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610666.4119294117</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R12" t="n">
-        <v>7181042.722880279</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111808659</v>
+        <v>111808957</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610912.6426496292</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R13" t="n">
-        <v>7180936.738188162</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111809026</v>
+        <v>111807370</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610772.3941544103</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R14" t="n">
-        <v>7180884.969268824</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808515</v>
+        <v>111807821</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610986.3631281323</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R15" t="n">
-        <v>7181120.765008576</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111807370</v>
+        <v>111807055</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,21 +2281,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610667.3767981895</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R16" t="n">
-        <v>7181039.764941735</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111807821</v>
+        <v>111807092</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,21 +2394,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610967.5972068857</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R17" t="n">
-        <v>7181002.477957427</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808000</v>
+        <v>111808659</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610972.8318012832</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R18" t="n">
-        <v>7180976.585010829</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808387</v>
+        <v>111808000</v>
       </c>
       <c r="B19" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,21 +2620,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611016.8359391808</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R19" t="n">
-        <v>7181141.984797659</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111807814</v>
+        <v>111808532</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610955.7664983921</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R20" t="n">
-        <v>7180998.193866283</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111808022</v>
+        <v>111808676</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611005.4375152331</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R21" t="n">
-        <v>7181032.949711116</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111808532</v>
+        <v>111806888</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610963.6803355663</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R22" t="n">
-        <v>7181097.266412931</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111808387</v>
+        <v>111808817</v>
       </c>
       <c r="B2" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>611016.8359391808</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R2" t="n">
-        <v>7181141.984797659</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111808817</v>
+        <v>111808387</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610921.7319367616</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R3" t="n">
-        <v>7180934.079081071</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111809318</v>
+        <v>111808022</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1373,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610793.1422167002</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R8" t="n">
-        <v>7180891.290986502</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808022</v>
+        <v>111809318</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611005.4375152331</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R9" t="n">
-        <v>7181032.949711116</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111808817</v>
+        <v>111807055</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610921.7319367616</v>
+        <v>610666.4119294117</v>
       </c>
       <c r="R2" t="n">
-        <v>7180934.079081071</v>
+        <v>7181042.722880279</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111808387</v>
+        <v>111808676</v>
       </c>
       <c r="B3" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611016.8359391808</v>
+        <v>610906.3771198173</v>
       </c>
       <c r="R3" t="n">
-        <v>7181141.984797659</v>
+        <v>7180955.75143602</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111809897</v>
+        <v>111808532</v>
       </c>
       <c r="B4" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,37 +922,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610718.603132805</v>
+        <v>610963.6803355663</v>
       </c>
       <c r="R4" t="n">
-        <v>7180857.334717941</v>
+        <v>7181097.266412931</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -984,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -994,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1003,7 +1001,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111806969</v>
+        <v>111806888</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1063,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610695.5210812307</v>
+        <v>610667.2784075569</v>
       </c>
       <c r="R5" t="n">
-        <v>7181007.871029559</v>
+        <v>7181030.781246905</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1093,22 +1090,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111808328</v>
+        <v>111807814</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611008.4619706698</v>
+        <v>610955.7664983921</v>
       </c>
       <c r="R6" t="n">
-        <v>7181032.205813259</v>
+        <v>7180998.193866283</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111807777</v>
+        <v>111809026</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1289,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610955.5779051523</v>
+        <v>610772.3941544103</v>
       </c>
       <c r="R7" t="n">
-        <v>7181003.318500374</v>
+        <v>7180884.969268824</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111808022</v>
+        <v>111807092</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611005.4375152331</v>
+        <v>610678.3995887624</v>
       </c>
       <c r="R8" t="n">
-        <v>7181032.949711116</v>
+        <v>7181042.735301252</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111809318</v>
+        <v>111808328</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>610793.1422167002</v>
+        <v>611008.4619706698</v>
       </c>
       <c r="R9" t="n">
-        <v>7180891.290986502</v>
+        <v>7181032.205813259</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111807814</v>
+        <v>111808817</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1628,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610955.7664983921</v>
+        <v>610921.7319367616</v>
       </c>
       <c r="R10" t="n">
-        <v>7180998.193866283</v>
+        <v>7180934.079081071</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111809026</v>
+        <v>111808000</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1741,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610772.3941544103</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R11" t="n">
-        <v>7180884.969268824</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,7 +1810,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111808515</v>
+        <v>111808659</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1854,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610986.3631281323</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R12" t="n">
-        <v>7181120.765008576</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,7 +1923,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111808957</v>
+        <v>111807370</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1967,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610787.509024983</v>
+        <v>610667.3767981895</v>
       </c>
       <c r="R13" t="n">
-        <v>7180858.155172224</v>
+        <v>7181039.764941735</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2036,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111807370</v>
+        <v>111807777</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2080,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610667.3767981895</v>
+        <v>610955.5779051523</v>
       </c>
       <c r="R14" t="n">
-        <v>7181039.764941735</v>
+        <v>7181003.318500374</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,7 +2149,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111807821</v>
+        <v>111808515</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2193,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610967.5972068857</v>
+        <v>610986.3631281323</v>
       </c>
       <c r="R15" t="n">
-        <v>7181002.477957427</v>
+        <v>7181120.765008576</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111807055</v>
+        <v>111808387</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,21 +2278,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2303,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610666.4119294117</v>
+        <v>611016.8359391808</v>
       </c>
       <c r="R16" t="n">
-        <v>7181042.722880279</v>
+        <v>7181141.984797659</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2338,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2348,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111807092</v>
+        <v>111806969</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610678.3995887624</v>
+        <v>610695.5210812307</v>
       </c>
       <c r="R17" t="n">
-        <v>7181042.735301252</v>
+        <v>7181007.871029559</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2451,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2461,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2488,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808659</v>
+        <v>111808022</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2500,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2529,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610912.6426496292</v>
+        <v>611005.4375152331</v>
       </c>
       <c r="R18" t="n">
-        <v>7180936.738188162</v>
+        <v>7181032.949711116</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2564,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2574,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,7 +2601,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111808000</v>
+        <v>111807821</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2645,10 +2642,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610972.8318012832</v>
+        <v>610967.5972068857</v>
       </c>
       <c r="R19" t="n">
-        <v>7180976.585010829</v>
+        <v>7181002.477957427</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2677,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2687,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2714,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111808532</v>
+        <v>111809318</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2730,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2755,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610963.6803355663</v>
+        <v>610793.1422167002</v>
       </c>
       <c r="R20" t="n">
-        <v>7181097.266412931</v>
+        <v>7180891.290986502</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2790,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2800,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,7 +2827,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111808676</v>
+        <v>111808957</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2871,10 +2868,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610906.3771198173</v>
+        <v>610787.509024983</v>
       </c>
       <c r="R21" t="n">
-        <v>7180955.75143602</v>
+        <v>7180858.155172224</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2903,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2913,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2940,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111806888</v>
+        <v>111809897</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,35 +2956,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610667.2784075569</v>
+        <v>610718.603132805</v>
       </c>
       <c r="R22" t="n">
-        <v>7181030.781246905</v>
+        <v>7180857.334717941</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3014,22 +3013,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3038,6 +3037,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111808000</v>
+        <v>111808659</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610972.8318012832</v>
+        <v>610912.6426496292</v>
       </c>
       <c r="R11" t="n">
-        <v>7180976.585010829</v>
+        <v>7180936.738188162</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,7 +1810,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111808659</v>
+        <v>111808000</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610912.6426496292</v>
+        <v>610972.8318012832</v>
       </c>
       <c r="R12" t="n">
-        <v>7180936.738188162</v>
+        <v>7180976.585010829</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111807055</v>
+        <v>111806969</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610666.4119294117</v>
+        <v>610696</v>
       </c>
       <c r="R2" t="n">
-        <v>7181042.722880279</v>
+        <v>7181008</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111808676</v>
+        <v>111806888</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610906.3771198173</v>
+        <v>610667</v>
       </c>
       <c r="R3" t="n">
-        <v>7180955.75143602</v>
+        <v>7181031</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -864,22 +864,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>13:40</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>13:40</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +896,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111808532</v>
+        <v>111808817</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +912,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +937,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610963.6803355663</v>
+        <v>610922</v>
       </c>
       <c r="R4" t="n">
-        <v>7181097.266412931</v>
+        <v>7180934</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +972,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +982,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111806888</v>
+        <v>111807092</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1025,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1050,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610667.2784075569</v>
+        <v>610678</v>
       </c>
       <c r="R5" t="n">
-        <v>7181030.781246905</v>
+        <v>7181043</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1090,22 +1080,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,10 +1163,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610955.7664983921</v>
+        <v>610956</v>
       </c>
       <c r="R6" t="n">
-        <v>7180998.193866283</v>
+        <v>7180998</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1245,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111809026</v>
+        <v>111807777</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1286,10 +1276,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610772.3941544103</v>
+        <v>610956</v>
       </c>
       <c r="R7" t="n">
-        <v>7180884.969268824</v>
+        <v>7181003</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1321,7 +1311,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1321,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1348,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111807092</v>
+        <v>111808676</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1364,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1389,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610678.3995887624</v>
+        <v>610906</v>
       </c>
       <c r="R8" t="n">
-        <v>7181042.735301252</v>
+        <v>7180956</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1434,7 +1424,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1434,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1461,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808328</v>
+        <v>111808387</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1473,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1502,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611008.4619706698</v>
+        <v>611017</v>
       </c>
       <c r="R9" t="n">
-        <v>7181032.205813259</v>
+        <v>7181142</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1547,7 +1537,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1547,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1574,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111808817</v>
+        <v>111808022</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1586,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1615,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>610921.7319367616</v>
+        <v>611005</v>
       </c>
       <c r="R10" t="n">
-        <v>7180934.079081071</v>
+        <v>7181033</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1660,7 +1650,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1660,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,7 +1687,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111808659</v>
+        <v>111807821</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1738,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610912.6426496292</v>
+        <v>610968</v>
       </c>
       <c r="R11" t="n">
-        <v>7180936.738188162</v>
+        <v>7181002</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1773,7 +1763,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1773,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1851,10 +1841,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610972.8318012832</v>
+        <v>610973</v>
       </c>
       <c r="R12" t="n">
-        <v>7180976.585010829</v>
+        <v>7180977</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1923,10 +1913,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111807370</v>
+        <v>111809897</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,35 +1929,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610667.3767981895</v>
+        <v>610719</v>
       </c>
       <c r="R13" t="n">
-        <v>7181039.764941735</v>
+        <v>7180857</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1999,7 +1991,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2001,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2018,6 +2010,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2036,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111807777</v>
+        <v>111808328</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2070,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>610955.5779051523</v>
+        <v>611008</v>
       </c>
       <c r="R14" t="n">
-        <v>7181003.318500374</v>
+        <v>7181032</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2112,7 +2105,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2122,7 +2115,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808515</v>
+        <v>111808532</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2165,21 +2158,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2190,10 +2183,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610986.3631281323</v>
+        <v>610964</v>
       </c>
       <c r="R15" t="n">
-        <v>7181120.765008576</v>
+        <v>7181097</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2225,7 +2218,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2228,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2262,10 +2255,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808387</v>
+        <v>111808659</v>
       </c>
       <c r="B16" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,21 +2271,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2303,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>611016.8359391808</v>
+        <v>610913</v>
       </c>
       <c r="R16" t="n">
-        <v>7181141.984797659</v>
+        <v>7180937</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2338,7 +2331,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2348,7 +2341,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2375,7 +2368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111806969</v>
+        <v>111808515</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2416,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610695.5210812307</v>
+        <v>610986</v>
       </c>
       <c r="R17" t="n">
-        <v>7181007.871029559</v>
+        <v>7181121</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2451,7 +2444,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2461,7 +2454,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2488,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808022</v>
+        <v>111808957</v>
       </c>
       <c r="B18" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2500,25 +2493,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2529,10 +2522,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611005.4375152331</v>
+        <v>610788</v>
       </c>
       <c r="R18" t="n">
-        <v>7181032.949711116</v>
+        <v>7180858</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2564,7 +2557,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2574,7 +2567,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2601,7 +2594,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111807821</v>
+        <v>111809318</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2642,10 +2635,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610967.5972068857</v>
+        <v>610793</v>
       </c>
       <c r="R19" t="n">
-        <v>7181002.477957427</v>
+        <v>7180891</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2677,7 +2670,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2687,7 +2680,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2714,7 +2707,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111809318</v>
+        <v>111809026</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2755,10 +2748,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610793.1422167002</v>
+        <v>610772</v>
       </c>
       <c r="R20" t="n">
-        <v>7180891.290986502</v>
+        <v>7180885</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2790,7 +2783,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2800,7 +2793,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2827,7 +2820,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111808957</v>
+        <v>111807370</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2868,10 +2861,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610787.509024983</v>
+        <v>610667</v>
       </c>
       <c r="R21" t="n">
-        <v>7180858.155172224</v>
+        <v>7181040</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2903,7 +2896,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2913,7 +2906,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2940,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111809897</v>
+        <v>111807055</v>
       </c>
       <c r="B22" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,37 +2949,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610718.603132805</v>
+        <v>610666</v>
       </c>
       <c r="R22" t="n">
-        <v>7180857.334717941</v>
+        <v>7181043</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3018,7 +3009,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3028,7 +3019,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3037,7 +3028,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3099,10 +3089,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>610812.3980471041</v>
+        <v>610812</v>
       </c>
       <c r="R23" t="n">
-        <v>7181031.407649678</v>
+        <v>7181031</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3132,19 +3122,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 34091-2023.xlsx
+++ b/artfynd/A 34091-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111806969</v>
+        <v>111809897</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,35 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>610696</v>
+        <v>610719</v>
       </c>
       <c r="R2" t="n">
-        <v>7181008</v>
+        <v>7180857</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +768,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -775,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111806888</v>
+        <v>111808659</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -834,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610667</v>
+        <v>610913</v>
       </c>
       <c r="R3" t="n">
-        <v>7181031</v>
+        <v>7180937</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -864,12 +867,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1009,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111807092</v>
+        <v>111808957</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,21 +1038,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1050,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>610678</v>
+        <v>610788</v>
       </c>
       <c r="R5" t="n">
-        <v>7181043</v>
+        <v>7180858</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1085,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1095,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1122,7 +1135,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111807814</v>
+        <v>111808676</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1163,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610956</v>
+        <v>610906</v>
       </c>
       <c r="R6" t="n">
-        <v>7180998</v>
+        <v>7180956</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1198,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1208,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1235,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111807777</v>
+        <v>111807821</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1276,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>610956</v>
+        <v>610968</v>
       </c>
       <c r="R7" t="n">
-        <v>7181003</v>
+        <v>7181002</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1311,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1321,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1348,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111808676</v>
+        <v>111807055</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,21 +1377,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1389,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>610906</v>
+        <v>610666</v>
       </c>
       <c r="R8" t="n">
-        <v>7180956</v>
+        <v>7181043</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1424,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1434,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1461,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111808387</v>
+        <v>111808532</v>
       </c>
       <c r="B9" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,21 +1490,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1502,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611017</v>
+        <v>610964</v>
       </c>
       <c r="R9" t="n">
-        <v>7181142</v>
+        <v>7181097</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1537,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1547,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1574,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111808022</v>
+        <v>111808387</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1586,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1615,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611005</v>
+        <v>611017</v>
       </c>
       <c r="R10" t="n">
-        <v>7181033</v>
+        <v>7181142</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1650,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1660,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1687,7 +1700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111807821</v>
+        <v>111808000</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1728,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>610968</v>
+        <v>610973</v>
       </c>
       <c r="R11" t="n">
-        <v>7181002</v>
+        <v>7180977</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1763,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1773,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,7 +1813,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111808000</v>
+        <v>111809026</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1841,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>610973</v>
+        <v>610772</v>
       </c>
       <c r="R12" t="n">
-        <v>7180977</v>
+        <v>7180885</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1876,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1886,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1913,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111809897</v>
+        <v>111807814</v>
       </c>
       <c r="B13" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,37 +1942,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Rönnberget (Rönnberget), Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>610719</v>
+        <v>610956</v>
       </c>
       <c r="R13" t="n">
-        <v>7180857</v>
+        <v>7180998</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1991,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2001,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2010,7 +2021,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2029,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111808328</v>
+        <v>111807092</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2070,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611008</v>
+        <v>610678</v>
       </c>
       <c r="R14" t="n">
-        <v>7181032</v>
+        <v>7181043</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2105,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2115,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2142,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111808532</v>
+        <v>111807777</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2158,21 +2168,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2183,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>610964</v>
+        <v>610956</v>
       </c>
       <c r="R15" t="n">
-        <v>7181097</v>
+        <v>7181003</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2218,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2228,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2255,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111808659</v>
+        <v>111808328</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2267,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2296,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>610913</v>
+        <v>611008</v>
       </c>
       <c r="R16" t="n">
-        <v>7180937</v>
+        <v>7181032</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2331,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2341,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2368,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111808515</v>
+        <v>111808022</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2380,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>610986</v>
+        <v>611005</v>
       </c>
       <c r="R17" t="n">
-        <v>7181121</v>
+        <v>7181033</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2444,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2454,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2481,7 +2491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111808957</v>
+        <v>111806888</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2522,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>610788</v>
+        <v>610667</v>
       </c>
       <c r="R18" t="n">
-        <v>7180858</v>
+        <v>7181031</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2552,22 +2562,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>13:52</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>13:52</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2594,7 +2594,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111809318</v>
+        <v>111806969</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>610793</v>
+        <v>610696</v>
       </c>
       <c r="R19" t="n">
-        <v>7180891</v>
+        <v>7181008</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2707,7 +2707,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111809026</v>
+        <v>111807370</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>610772</v>
+        <v>610667</v>
       </c>
       <c r="R20" t="n">
-        <v>7180885</v>
+        <v>7181040</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2820,7 +2820,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111807370</v>
+        <v>111809318</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>610667</v>
+        <v>610793</v>
       </c>
       <c r="R21" t="n">
-        <v>7181040</v>
+        <v>7180891</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2933,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111807055</v>
+        <v>111808515</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2949,21 +2949,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>610666</v>
+        <v>610986</v>
       </c>
       <c r="R22" t="n">
-        <v>7181043</v>
+        <v>7181121</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3049,7 +3049,7 @@
         <v>111861742</v>
       </c>
       <c r="B23" t="n">
-        <v>78579</v>
+        <v>78700</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
